--- a/example/__const__.xlsx
+++ b/example/__const__.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>__name__</t>
   </si>
@@ -29,6 +29,9 @@
     <t>__value__</t>
   </si>
   <si>
+    <t>__side__</t>
+  </si>
+  <si>
     <t>__desc__</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
     <t>require</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
     <t>这是一个常量</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
     <t>int64</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>ConstUint</t>
   </si>
   <si>
@@ -90,6 +99,9 @@
   </si>
   <si>
     <t>uint32</t>
+  </si>
+  <si>
+    <t>cs</t>
   </si>
   <si>
     <t>ConstUint64</t>
@@ -1132,22 +1144,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="4" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:5">
+    <row r="1" ht="24" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,140 +1175,170 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1340,26 +1382,26 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1367,49 +1409,49 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
